--- a/AnalisadorSintatico.Wpf/tabela2.xlsx
+++ b/AnalisadorSintatico.Wpf/tabela2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heck_\Source\Repos\analisador-bottom-up\AnalisadorSintatico.Wpf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heck_\OneDrive\Documentos\Visual Studio 2017\Projects\Analisador Sintático Bottom-Up\AnalisadorSintatico.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,75 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>aceita</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>AÇÃO</t>
+  </si>
+  <si>
+    <t>TRANSIÇÃO</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>ACEITA</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>r4</t>
   </si>
   <si>
     <t>r2</t>
   </si>
   <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
     <t>r3</t>
   </si>
   <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s7</t>
-  </si>
-  <si>
-    <t>s11</t>
-  </si>
-  <si>
-    <t>AÇÃO</t>
-  </si>
-  <si>
-    <t>DESVIO</t>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -134,7 +119,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,23 +401,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -444,283 +429,174 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>